--- a/mmo_excel/xlsx/shopItem.xlsx
+++ b/mmo_excel/xlsx/shopItem.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\mmo_demo\mmo_excel\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2543904-DEC4-4D51-873D-BCD90CC625E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA68F792-8986-4D06-8776-23692D600861}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3870" yWindow="1755" windowWidth="21600" windowHeight="13125" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,22 @@
   </si>
   <si>
     <t>itemId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cs</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -377,15 +393,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,8 +411,11 @@
       <c r="C1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -406,8 +425,11 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -417,8 +439,11 @@
       <c r="C3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -428,43 +453,400 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>10001</v>
+        <v>1001</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="C5">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+        <v>1601</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>10002</v>
+        <v>1002</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6">
+        <v>1602</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1003</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>1701</v>
+      </c>
+      <c r="D7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1101</v>
+      </c>
+      <c r="D8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
         <v>1102</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>10101</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>10102</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
+      <c r="D9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>1103</v>
+      </c>
+      <c r="D10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>1104</v>
+      </c>
+      <c r="D11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>1105</v>
+      </c>
+      <c r="D12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13">
+        <v>1106</v>
+      </c>
+      <c r="D13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>1107</v>
+      </c>
+      <c r="D14">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>1201</v>
+      </c>
+      <c r="D15">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>1202</v>
+      </c>
+      <c r="D16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>1203</v>
+      </c>
+      <c r="D17">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2011</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
+        <v>1204</v>
+      </c>
+      <c r="D18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2012</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>1301</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2013</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>1302</v>
+      </c>
+      <c r="D20">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>1303</v>
+      </c>
+      <c r="D21">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>1401</v>
+      </c>
+      <c r="D22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2016</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1402</v>
+      </c>
+      <c r="D23">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2017</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1403</v>
+      </c>
+      <c r="D24">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2018</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1501</v>
+      </c>
+      <c r="D25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2019</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>1502</v>
+      </c>
+      <c r="D26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>2020</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>1503</v>
+      </c>
+      <c r="D27">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>3001</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28">
+        <v>1602</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>3002</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>1701</v>
+      </c>
+      <c r="D29">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>3003</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>1102</v>
+      </c>
+      <c r="D30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>3004</v>
+      </c>
+      <c r="B31">
+        <v>3</v>
+      </c>
+      <c r="C31">
+        <v>1201</v>
+      </c>
+      <c r="D31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>3005</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+      <c r="C32">
+        <v>1502</v>
+      </c>
+      <c r="D32">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
